--- a/biology/Médecine/Micronodule/Micronodule.xlsx
+++ b/biology/Médecine/Micronodule/Micronodule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, un micronodule est une formation anormale, plus ou moins arrondie et aux contours bien limités qui mesure moins de 10 mm de diamètre et qui est généralement décelée seulement par la radiographie.
 Au-delà de 10 mm, il s’agit plutôt d’un nodule.
